--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="198">
   <si>
     <t>ID</t>
   </si>
@@ -66,562 +66,551 @@
     <t>Log out. clear cache and cookies</t>
   </si>
   <si>
-    <t xml:space="preserve">High
-Critical
+    <t xml:space="preserve">fields  "Enter email" and "Enter password" are highlighted in red </t>
+  </si>
+  <si>
+    <t>3.0.</t>
+  </si>
+  <si>
+    <t>1. enter valid password</t>
+  </si>
+  <si>
+    <t>4.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email: uu7874df@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email: uu7874df@gmail.com, password: sdfjSDFF846ff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">password: sdfjSDFF846ff </t>
+  </si>
+  <si>
+    <t>No run</t>
+  </si>
+  <si>
+    <t>5.0.</t>
+  </si>
+  <si>
+    <t>1. enter valid email</t>
+  </si>
+  <si>
+    <t>2. enter valid password</t>
+  </si>
+  <si>
+    <t>1. enter invalid email</t>
+  </si>
+  <si>
+    <t>2. enter invalid  password</t>
+  </si>
+  <si>
+    <t>invalid email is displayed in the field "Enter email"</t>
+  </si>
+  <si>
+    <t>3.click on the check box</t>
+  </si>
+  <si>
+    <t>6.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. enter html code in the field "Enter email" </t>
+  </si>
+  <si>
+    <t>2. enter valid  password</t>
+  </si>
+  <si>
+    <t>3.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
+  </si>
+  <si>
+    <t>7.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a message appears that the email or password are incorrect. fields  "Enter email" and "Enter password" are highlighted in red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">html code: &lt;h3 class="page-title"&gt;Ringostat login&lt;/h3&gt;,                                                   password: sdfjSDFF846ff </t>
+  </si>
+  <si>
+    <t>html code is displayed in the field "Enter email"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. enter SQL queri in the field "Enter email" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a message appears that the email or password are incorrect. field  "Enter email" is highlighted in red </t>
+  </si>
+  <si>
+    <t>SQL queri is displayed in the field "Enter email"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL queri: SELECT * FROM login WHERE field LIKE "%in%",                                                   password: sdfjSDFF846ff </t>
+  </si>
+  <si>
+    <t>8.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. enter characters in the field "Enter email" </t>
+  </si>
+  <si>
+    <t>characters are displayed in the field "Enter email"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characters: ":?&gt;&lt;!@#$%^&amp;*()_,.+=-  password: sdfjSDFF846ff </t>
+  </si>
+  <si>
+    <t>9.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. enter valid email </t>
+  </si>
+  <si>
+    <t>valid email displayed in the field "Enter email"</t>
+  </si>
+  <si>
+    <t>2. enter password using spaces between characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a message appears that the email or password are incorrect. field  "Enter password" is highlighted in red </t>
+  </si>
+  <si>
+    <t>2.click on the check box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field "Enter password" is highlighted in red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">field  "Enter email" is highlighted in red </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email: uu7874df@gmailkkk.com, password: DFF846ff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email: uu7874df@gmail.com,  password: s d f j S D F F 8 4 6 f f  </t>
+  </si>
+  <si>
+    <t>2.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
+  </si>
+  <si>
+    <t>1.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
+  </si>
+  <si>
+    <t>4.press the button "Log in"</t>
+  </si>
+  <si>
+    <t>2. press the button "Log in"</t>
+  </si>
+  <si>
+    <t>3. press the button "Log in"</t>
+  </si>
+  <si>
+    <t>10.0.</t>
+  </si>
+  <si>
+    <t>1. click the "Forgot your password" link</t>
+  </si>
+  <si>
+    <t>a pop-up window opens to reset the password</t>
+  </si>
+  <si>
+    <t>11.0.</t>
+  </si>
+  <si>
+    <t>chek if the font, text color, and color coding of the Login page is as per the standard</t>
+  </si>
+  <si>
+    <t>1. press the F12 key</t>
+  </si>
+  <si>
+    <t>Chrome DevTools opens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. open the "Elements" tab in Chrome DevTools </t>
+  </si>
+  <si>
+    <t>the "Elements" tab has opened</t>
+  </si>
+  <si>
+    <t>3. press Ctrl + Shift + C</t>
+  </si>
+  <si>
+    <t>the element selection icon is activated</t>
+  </si>
+  <si>
+    <t>4. inspect each element of web application on the page</t>
+  </si>
+  <si>
+    <t>all elements of the login page correspond to the specification</t>
+  </si>
+  <si>
+    <t>close Chrome DevTools</t>
+  </si>
+  <si>
+    <t>12.0.</t>
+  </si>
+  <si>
+    <t>chek the time taken to log in with a valid email and valid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. open the "Performance" tab in Chrome DevTools </t>
+  </si>
+  <si>
+    <t>3. enter valid email</t>
+  </si>
+  <si>
+    <t>4. enter valid password</t>
+  </si>
+  <si>
+    <t>5.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
+  </si>
+  <si>
+    <t>the "Performance" tab has opened</t>
+  </si>
+  <si>
+    <t>recording started</t>
+  </si>
+  <si>
+    <t>6. press Ctrl + E</t>
+  </si>
+  <si>
+    <t>7.press the button "Log in"</t>
+  </si>
+  <si>
+    <t>8. chek the time taken to log in</t>
+  </si>
+  <si>
+    <t>login time correspond to the specification</t>
+  </si>
+  <si>
+    <t>13.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open the page https://app.ringostat.com/login </t>
+  </si>
+  <si>
+    <t>valid email is displayed in the field "Enter email"</t>
+  </si>
+  <si>
+    <t>2. enter invalid  password with 18 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email: uu7874df@gmail.com, password: dfjSDFF846ffeo573b </t>
+  </si>
+  <si>
+    <t>chek if a user cannot enter more than 12 characters in field "Enter password"</t>
+  </si>
+  <si>
+    <t>only 12 characters are displayed in the field "Enter password"</t>
+  </si>
+  <si>
+    <t>14.0.</t>
+  </si>
+  <si>
+    <t>check the possibility to log in  with button "Continue with Google"</t>
+  </si>
+  <si>
+    <t>check the possibility  to log in   with valid email and valid password</t>
+  </si>
+  <si>
+    <t>check the possibility to log in with empty fields "Enter email" and "Enter password"</t>
+  </si>
+  <si>
+    <t>check the possibility  to log in with empty field "Enter email" and valid field "Enter password"</t>
+  </si>
+  <si>
+    <t>check the possibility to log in with empty field "Enter password" and valid field "Enter email"</t>
+  </si>
+  <si>
+    <t>check the possibility  to log in with invalid email and invalid password</t>
+  </si>
+  <si>
+    <t>check the possibility  to log in with html code in the field "Enter email" and valid password</t>
+  </si>
+  <si>
+    <t>check the possiblity  to log in with SQL queri in the field "Enter email" and valid password</t>
+  </si>
+  <si>
+    <t>check the possibility  to log in with complex sequence of characters in the field "Enter email" and valid password</t>
+  </si>
+  <si>
+    <t>check the possibility  to log in with a valid email and using spaces in the password</t>
+  </si>
+  <si>
+    <t>chek the "Forgot Password" functionality.</t>
+  </si>
+  <si>
+    <t>2. click the button "Continue with Google"</t>
+  </si>
+  <si>
+    <t>the user is redirected to the Google account page</t>
+  </si>
+  <si>
+    <t>3. click on your account</t>
+  </si>
+  <si>
+    <t>the user is logged in and redirected to the main page of the application</t>
+  </si>
+  <si>
+    <t>the check box is displayed as selected</t>
+  </si>
+  <si>
+    <t>15.0.</t>
+  </si>
+  <si>
+    <t>check the possibility to log in when the Internet connection is interrupted</t>
+  </si>
+  <si>
+    <t>1. have an account on  https://app.ringostat.com    2. open https://app.ringostat.com/login in the browser</t>
+  </si>
+  <si>
+    <t>the user logs in on the page</t>
+  </si>
+  <si>
+    <t>5. disconnect the internet</t>
+  </si>
+  <si>
+    <t>a message appears that the page is not available</t>
+  </si>
+  <si>
+    <t>6. connect the internet back</t>
+  </si>
+  <si>
+    <t>7. refresh the page</t>
+  </si>
+  <si>
+    <t>user is not logged in</t>
+  </si>
+  <si>
+    <t>the page is not available</t>
+  </si>
+  <si>
+    <t>Check whether the signup link for the new user is working</t>
+  </si>
+  <si>
+    <t>2. enter valid email in field "Enter your email to reset your password"</t>
+  </si>
+  <si>
+    <t>valid email displayed in the field "Enter your email to reset your password"</t>
+  </si>
+  <si>
+    <t>3. push the button "Send"</t>
+  </si>
+  <si>
+    <t>a pop-up window closes. The user is on the login page</t>
+  </si>
+  <si>
+    <t>4. check the letter on email from app.ringostat.com</t>
+  </si>
+  <si>
+    <t>the letter is available on email</t>
+  </si>
+  <si>
+    <t>5. open the email and click on the password reset link</t>
+  </si>
+  <si>
+    <t>the user is redirected to the password reset page</t>
+  </si>
+  <si>
+    <t>6. enter valid data in the "New password" field</t>
+  </si>
+  <si>
+    <t>valid data is displayed in the "New password" field</t>
+  </si>
+  <si>
+    <t>7.click the "Change password" button</t>
+  </si>
+  <si>
+    <t>a message about successful password change appears. the user is redirected to the login page</t>
+  </si>
+  <si>
+    <t>16.0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chek that login page’s UI is responsive </t>
+  </si>
+  <si>
+    <t>1. open google chrome. 2. open https://app.ringostat.com/login in the browser</t>
+  </si>
+  <si>
+    <t>the icon of toggle device toolbar is actived</t>
+  </si>
+  <si>
+    <t>2. press Ctrl + Shift + M</t>
+  </si>
+  <si>
+    <t>3. in the upper left part of the screen, click on the "Dimensions" drop-down menu</t>
+  </si>
+  <si>
+    <t>drop-down menu is opened</t>
+  </si>
+  <si>
+    <t>4. chose "Responsive" in drop-down menu</t>
+  </si>
+  <si>
+    <t>the login page is displayed in a responsive form</t>
+  </si>
+  <si>
+    <t>5. use the cursor to change the size of login page</t>
+  </si>
+  <si>
+    <t>the size of the login page is responsive</t>
+  </si>
+  <si>
+    <t>17.0.</t>
+  </si>
+  <si>
+    <t>check the functionality of the button that shows and maskes the password in field "Enter password"</t>
+  </si>
+  <si>
+    <t>the password is displayed masked in the field "Enter password"</t>
+  </si>
+  <si>
+    <t>2. click on the "eye" icon on the right side of the field  "Enter password"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password: dfjSDFF846ffeo573b </t>
+  </si>
+  <si>
+    <t>1. open https://app.ringostat.com/login in the browser</t>
+  </si>
+  <si>
+    <t>18.0.</t>
+  </si>
+  <si>
+    <t>1. click the "Sign up" link</t>
+  </si>
+  <si>
+    <t>the user is redirected to the registration page</t>
+  </si>
+  <si>
+    <t>2. click on the button "Register by email"</t>
+  </si>
+  <si>
+    <t>a pop-up window for entering registration data opens</t>
+  </si>
+  <si>
+    <t>19.0.</t>
+  </si>
+  <si>
+    <t>Check if there is a limit on the total number of failed login attempts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. enter invalid email in the field "Enter email" </t>
+  </si>
+  <si>
+    <t>invalid password is displayed masked in the field "Enter password"</t>
+  </si>
+  <si>
+    <t>valid password is displayed masked in the field "Enter password"</t>
+  </si>
+  <si>
+    <t>password is displayed masked in the field "Enter password"</t>
+  </si>
+  <si>
+    <t>the valid password is displayed opened in the field "Enter password"</t>
+  </si>
+  <si>
+    <t>5. repeat steps: 1, 2, 4</t>
+  </si>
+  <si>
+    <t>a message appears that the user has exceeded the number of failed login attempts. the user is blocked for 24 hours</t>
+  </si>
+  <si>
+    <t>20.0.</t>
+  </si>
+  <si>
+    <t>Check that after log in and pressing the "Back" button, the user will not be log out.</t>
+  </si>
+  <si>
+    <t>5. click the "Back" button in the upper left corner of the Google Chrome browser</t>
+  </si>
+  <si>
+    <t>1. have an account on  https://app.ringostat.com    2. open https://app.ringostat.com/login in the Google Chrome browser</t>
+  </si>
+  <si>
+    <t>the user remains on the main page</t>
+  </si>
+  <si>
+    <t>21.0.</t>
+  </si>
+  <si>
+    <t>5. copy the url address of the main page with the login user</t>
+  </si>
+  <si>
+    <t>url address copied</t>
+  </si>
+  <si>
+    <t>6. log out of the account</t>
+  </si>
+  <si>
+    <t>the mane page is displayed</t>
+  </si>
+  <si>
+    <t>the user is redirected to the login page</t>
+  </si>
+  <si>
+    <t>7. Paste the copied URL into the browser field and clik enter</t>
+  </si>
+  <si>
+    <t>check the possibility to go to the main page as a log in user using the URL address</t>
+  </si>
+  <si>
+    <t>22.0.</t>
+  </si>
+  <si>
+    <t>check the localization of the text into the Ukrainian language</t>
+  </si>
+  <si>
+    <t>1. open https://ringostat.com in the browser</t>
+  </si>
+  <si>
+    <t>1. click on the language selection drop-down menu in the upper right corner</t>
+  </si>
+  <si>
+    <t>drop-down menu for language selection is displayed on the screen</t>
+  </si>
+  <si>
+    <t>2. select language "Українська"</t>
+  </si>
+  <si>
+    <t>the main page is displayed in Ukrainian</t>
+  </si>
+  <si>
+    <t>3. click on the "Вхід" link in the upper right corner</t>
+  </si>
+  <si>
+    <t>4. check the localization of the text in Ukrainian</t>
+  </si>
+  <si>
+    <t>all Ukrainian text on the page is displayed correctly</t>
+  </si>
+  <si>
+    <t>23.0.</t>
+  </si>
+  <si>
+    <t>check the compatibility of the login page in the Mozilla Firefox browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open https://app.ringostat.com/login in the browser Firefox (version 105.0.3) </t>
+  </si>
+  <si>
+    <t>1. chek the font, text color, and color coding, dimensions, retreat of the Login page is as per the standard</t>
+  </si>
+  <si>
+    <t>the Login page is as per the standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">fields  "Enter email" and "Enter password" are highlighted in red </t>
-  </si>
-  <si>
-    <t>3.0.</t>
-  </si>
-  <si>
-    <t>1. enter valid password</t>
-  </si>
-  <si>
-    <t>4.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email: uu7874df@gmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">email: uu7874df@gmail.com, password: sdfjSDFF846ff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">password: sdfjSDFF846ff </t>
-  </si>
-  <si>
-    <t>No run</t>
-  </si>
-  <si>
-    <t>5.0.</t>
-  </si>
-  <si>
-    <t>1. enter valid email</t>
-  </si>
-  <si>
-    <t>2. enter valid password</t>
-  </si>
-  <si>
-    <t>1. enter invalid email</t>
-  </si>
-  <si>
-    <t>2. enter invalid  password</t>
-  </si>
-  <si>
-    <t>invalid email is displayed in the field "Enter email"</t>
-  </si>
-  <si>
-    <t>3.click on the check box</t>
-  </si>
-  <si>
-    <t>6.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. enter html code in the field "Enter email" </t>
-  </si>
-  <si>
-    <t>2. enter valid  password</t>
-  </si>
-  <si>
-    <t>3.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
-  </si>
-  <si>
-    <t>7.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a message appears that the email or password are incorrect. fields  "Enter email" and "Enter password" are highlighted in red </t>
-  </si>
-  <si>
-    <t xml:space="preserve">html code: &lt;h3 class="page-title"&gt;Ringostat login&lt;/h3&gt;,                                                   password: sdfjSDFF846ff </t>
-  </si>
-  <si>
-    <t>html code is displayed in the field "Enter email"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. enter SQL queri in the field "Enter email" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a message appears that the email or password are incorrect. field  "Enter email" is highlighted in red </t>
-  </si>
-  <si>
-    <t>SQL queri is displayed in the field "Enter email"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL queri: SELECT * FROM login WHERE field LIKE "%in%",                                                   password: sdfjSDFF846ff </t>
-  </si>
-  <si>
-    <t>8.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. enter characters in the field "Enter email" </t>
-  </si>
-  <si>
-    <t>characters are displayed in the field "Enter email"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">characters: ":?&gt;&lt;!@#$%^&amp;*()_,.+=-  password: sdfjSDFF846ff </t>
-  </si>
-  <si>
-    <t>9.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. enter valid email </t>
-  </si>
-  <si>
-    <t>valid email displayed in the field "Enter email"</t>
-  </si>
-  <si>
-    <t>2. enter password using spaces between characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a message appears that the email or password are incorrect. field  "Enter password" is highlighted in red </t>
-  </si>
-  <si>
-    <t>2.click on the check box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field "Enter password" is highlighted in red </t>
-  </si>
-  <si>
-    <t xml:space="preserve">field  "Enter email" is highlighted in red </t>
-  </si>
-  <si>
-    <t xml:space="preserve">email: uu7874df@gmailkkk.com, password: DFF846ff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">email: uu7874df@gmail.com,  password: s d f j S D F F 8 4 6 f f  </t>
-  </si>
-  <si>
-    <t>2.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
-  </si>
-  <si>
-    <t>1.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
-  </si>
-  <si>
-    <t>4.press the button "Log in"</t>
-  </si>
-  <si>
-    <t>2. press the button "Log in"</t>
-  </si>
-  <si>
-    <t>3. press the button "Log in"</t>
-  </si>
-  <si>
-    <t>10.0.</t>
-  </si>
-  <si>
-    <t>1. click the "Forgot your password" link</t>
-  </si>
-  <si>
-    <t>a pop-up window opens to reset the password</t>
-  </si>
-  <si>
-    <t>11.0.</t>
-  </si>
-  <si>
-    <t>chek if the font, text color, and color coding of the Login page is as per the standard</t>
-  </si>
-  <si>
-    <t>1. press the F12 key</t>
-  </si>
-  <si>
-    <t>Chrome DevTools opens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. open the "Elements" tab in Chrome DevTools </t>
-  </si>
-  <si>
-    <t>the "Elements" tab has opened</t>
-  </si>
-  <si>
-    <t>3. press Ctrl + Shift + C</t>
-  </si>
-  <si>
-    <t>the element selection icon is activated</t>
-  </si>
-  <si>
-    <t>4. inspect each element of web application on the page</t>
-  </si>
-  <si>
-    <t>all elements of the login page correspond to the specification</t>
-  </si>
-  <si>
-    <t>close Chrome DevTools</t>
-  </si>
-  <si>
-    <t>12.0.</t>
-  </si>
-  <si>
-    <t>chek the time taken to log in with a valid email and valid password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. open the "Performance" tab in Chrome DevTools </t>
-  </si>
-  <si>
-    <t>3. enter valid email</t>
-  </si>
-  <si>
-    <t>4. enter valid password</t>
-  </si>
-  <si>
-    <t>5.click on the check box "I accept the terms of the SaaS Agreement and Privacy Policy"</t>
-  </si>
-  <si>
-    <t>the "Performance" tab has opened</t>
-  </si>
-  <si>
-    <t>recording started</t>
-  </si>
-  <si>
-    <t>6. press Ctrl + E</t>
-  </si>
-  <si>
-    <t>7.press the button "Log in"</t>
-  </si>
-  <si>
-    <t>8. chek the time taken to log in</t>
-  </si>
-  <si>
-    <t>login time correspond to the specification</t>
-  </si>
-  <si>
-    <t>13.0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open the page https://app.ringostat.com/login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium
-Critical
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low
-Critical
-</t>
-  </si>
-  <si>
-    <t>valid email is displayed in the field "Enter email"</t>
-  </si>
-  <si>
-    <t>2. enter invalid  password with 18 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email: uu7874df@gmail.com, password: dfjSDFF846ffeo573b </t>
-  </si>
-  <si>
-    <t>chek if a user cannot enter more than 12 characters in field "Enter password"</t>
-  </si>
-  <si>
-    <t>only 12 characters are displayed in the field "Enter password"</t>
-  </si>
-  <si>
-    <t>14.0.</t>
-  </si>
-  <si>
-    <t>check the possibility to log in  with button "Continue with Google"</t>
-  </si>
-  <si>
-    <t>check the possibility  to log in   with valid email and valid password</t>
-  </si>
-  <si>
-    <t>check the possibility to log in with empty fields "Enter email" and "Enter password"</t>
-  </si>
-  <si>
-    <t>check the possibility  to log in with empty field "Enter email" and valid field "Enter password"</t>
-  </si>
-  <si>
-    <t>check the possibility to log in with empty field "Enter password" and valid field "Enter email"</t>
-  </si>
-  <si>
-    <t>check the possibility  to log in with invalid email and invalid password</t>
-  </si>
-  <si>
-    <t>check the possibility  to log in with html code in the field "Enter email" and valid password</t>
-  </si>
-  <si>
-    <t>check the possiblity  to log in with SQL queri in the field "Enter email" and valid password</t>
-  </si>
-  <si>
-    <t>check the possibility  to log in with complex sequence of characters in the field "Enter email" and valid password</t>
-  </si>
-  <si>
-    <t>check the possibility  to log in with a valid email and using spaces in the password</t>
-  </si>
-  <si>
-    <t>chek the "Forgot Password" functionality.</t>
-  </si>
-  <si>
-    <t>2. click the button "Continue with Google"</t>
-  </si>
-  <si>
-    <t>the user is redirected to the Google account page</t>
-  </si>
-  <si>
-    <t>3. click on your account</t>
-  </si>
-  <si>
-    <t>the user is logged in and redirected to the main page of the application</t>
-  </si>
-  <si>
-    <t>the check box is displayed as selected</t>
-  </si>
-  <si>
-    <t>15.0.</t>
-  </si>
-  <si>
-    <t>check the possibility to log in when the Internet connection is interrupted</t>
-  </si>
-  <si>
-    <t>1. have an account on  https://app.ringostat.com    2. open https://app.ringostat.com/login in the browser</t>
-  </si>
-  <si>
-    <t>the user logs in on the page</t>
-  </si>
-  <si>
-    <t>5. disconnect the internet</t>
-  </si>
-  <si>
-    <t>a message appears that the page is not available</t>
-  </si>
-  <si>
-    <t>6. connect the internet back</t>
-  </si>
-  <si>
-    <t>7. refresh the page</t>
-  </si>
-  <si>
-    <t>user is not logged in</t>
-  </si>
-  <si>
-    <t>the page is not available</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Check whether the signup link for the new user is working</t>
-  </si>
-  <si>
-    <t>2. enter valid email in field "Enter your email to reset your password"</t>
-  </si>
-  <si>
-    <t>valid email displayed in the field "Enter your email to reset your password"</t>
-  </si>
-  <si>
-    <t>3. push the button "Send"</t>
-  </si>
-  <si>
-    <t>a pop-up window closes. The user is on the login page</t>
-  </si>
-  <si>
-    <t>4. check the letter on email from app.ringostat.com</t>
-  </si>
-  <si>
-    <t>the letter is available on email</t>
-  </si>
-  <si>
-    <t>5. open the email and click on the password reset link</t>
-  </si>
-  <si>
-    <t>the user is redirected to the password reset page</t>
-  </si>
-  <si>
-    <t>6. enter valid data in the "New password" field</t>
-  </si>
-  <si>
-    <t>valid data is displayed in the "New password" field</t>
-  </si>
-  <si>
-    <t>7.click the "Change password" button</t>
-  </si>
-  <si>
-    <t>a message about successful password change appears. the user is redirected to the login page</t>
-  </si>
-  <si>
-    <t>16.0.</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chek that login page’s UI is responsive </t>
-  </si>
-  <si>
-    <t>1. open google chrome. 2. open https://app.ringostat.com/login in the browser</t>
-  </si>
-  <si>
-    <t>the icon of toggle device toolbar is actived</t>
-  </si>
-  <si>
-    <t>2. press Ctrl + Shift + M</t>
-  </si>
-  <si>
-    <t>3. in the upper left part of the screen, click on the "Dimensions" drop-down menu</t>
-  </si>
-  <si>
-    <t>drop-down menu is opened</t>
-  </si>
-  <si>
-    <t>4. chose "Responsive" in drop-down menu</t>
-  </si>
-  <si>
-    <t>the login page is displayed in a responsive form</t>
-  </si>
-  <si>
-    <t>5. use the cursor to change the size of login page</t>
-  </si>
-  <si>
-    <t>the size of the login page is responsive</t>
-  </si>
-  <si>
-    <t>17.0.</t>
-  </si>
-  <si>
-    <t>check the functionality of the button that shows and maskes the password in field "Enter password"</t>
-  </si>
-  <si>
-    <t>the password is displayed masked in the field "Enter password"</t>
-  </si>
-  <si>
-    <t>2. click on the "eye" icon on the right side of the field  "Enter password"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password: dfjSDFF846ffeo573b </t>
-  </si>
-  <si>
-    <t>1. open https://app.ringostat.com/login in the browser</t>
-  </si>
-  <si>
-    <t>18.0.</t>
-  </si>
-  <si>
-    <t>1. click the "Sign up" link</t>
-  </si>
-  <si>
-    <t>the user is redirected to the registration page</t>
-  </si>
-  <si>
-    <t>2. click on the button "Register by email"</t>
-  </si>
-  <si>
-    <t>a pop-up window for entering registration data opens</t>
-  </si>
-  <si>
-    <t>19.0.</t>
-  </si>
-  <si>
-    <t>Check if there is a limit on the total number of failed login attempts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. enter invalid email in the field "Enter email" </t>
-  </si>
-  <si>
-    <t>invalid password is displayed masked in the field "Enter password"</t>
-  </si>
-  <si>
-    <t>valid password is displayed masked in the field "Enter password"</t>
-  </si>
-  <si>
-    <t>password is displayed masked in the field "Enter password"</t>
-  </si>
-  <si>
-    <t>the valid password is displayed opened in the field "Enter password"</t>
-  </si>
-  <si>
-    <t>5. repeat steps: 1, 2, 4</t>
-  </si>
-  <si>
-    <t>a message appears that the user has exceeded the number of failed login attempts. the user is blocked for 24 hours</t>
-  </si>
-  <si>
-    <t>20.0.</t>
-  </si>
-  <si>
-    <t>Check that after log in and pressing the "Back" button, the user will not be log out.</t>
-  </si>
-  <si>
-    <t>5. click the "Back" button in the upper left corner of the Google Chrome browser</t>
-  </si>
-  <si>
-    <t>1. have an account on  https://app.ringostat.com    2. open https://app.ringostat.com/login in the Google Chrome browser</t>
-  </si>
-  <si>
-    <t>the user remains on the main page</t>
-  </si>
-  <si>
-    <t>21.0.</t>
-  </si>
-  <si>
-    <t>5. copy the url address of the main page with the login user</t>
-  </si>
-  <si>
-    <t>url address copied</t>
-  </si>
-  <si>
-    <t>6. log out of the account</t>
-  </si>
-  <si>
-    <t>the mane page is displayed</t>
-  </si>
-  <si>
-    <t>the user is redirected to the login page</t>
-  </si>
-  <si>
-    <t>7. Paste the copied URL into the browser field and clik enter</t>
-  </si>
-  <si>
-    <t>check the possibility to go to the main page as a log in user using the URL address</t>
-  </si>
-  <si>
-    <t>22.0.</t>
-  </si>
-  <si>
-    <t>check the localization of the text into the Ukrainian language</t>
-  </si>
-  <si>
-    <t>1. open https://ringostat.com in the browser</t>
-  </si>
-  <si>
-    <t>1. click on the language selection drop-down menu in the upper right corner</t>
-  </si>
-  <si>
-    <t>drop-down menu for language selection is displayed on the screen</t>
-  </si>
-  <si>
-    <t>2. select language "Українська"</t>
-  </si>
-  <si>
-    <t>the main page is displayed in Ukrainian</t>
-  </si>
-  <si>
-    <t>3. click on the "Вхід" link in the upper right corner</t>
-  </si>
-  <si>
-    <t>4. check the localization of the text in Ukrainian</t>
-  </si>
-  <si>
-    <t>all Ukrainian text on the page is displayed correctly</t>
-  </si>
-  <si>
-    <t>23.0.</t>
-  </si>
-  <si>
-    <t>check the compatibility of the login page in the Mozilla Firefox browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. open https://app.ringostat.com/login in the browser Firefox (version 105.0.3) </t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>1. chek the font, text color, and color coding, dimensions, retreat of the Login page is as per the standard</t>
-  </si>
-  <si>
-    <t>the Login page is as per the standard</t>
+    <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1010,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1447,6 +1436,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1493,7 +1508,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1551,44 +1566,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1598,34 +1585,68 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1965,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="C392" sqref="C392"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="B476" sqref="B476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1980,101 +2001,101 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="36"/>
+      <c r="B2" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="55"/>
+      <c r="B3" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="36"/>
+      <c r="A6" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="46"/>
       <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="36"/>
+      <c r="A7" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="46"/>
       <c r="C7" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="44"/>
+      <c r="A8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="42"/>
       <c r="C8" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="44"/>
+      <c r="A9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="42"/>
       <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickTop="1">
@@ -2099,23 +2120,23 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="52"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickTop="1"/>
@@ -2124,93 +2145,93 @@
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="36"/>
+      <c r="B22" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="55"/>
+      <c r="B23" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="48"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="44"/>
+      <c r="A26" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="42"/>
       <c r="C26" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="46"/>
+      <c r="A27" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="56"/>
       <c r="C27" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickTop="1">
@@ -2233,21 +2254,21 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="21"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="52"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickTop="1"/>
@@ -2256,92 +2277,92 @@
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="36"/>
+      <c r="B43" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="46"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="36"/>
+      <c r="B44" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="55"/>
+      <c r="B45" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="48"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C46" s="8"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="36"/>
+      <c r="A48" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="46"/>
       <c r="C48" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1">
-      <c r="A49" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="44"/>
+      <c r="A49" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="42"/>
       <c r="C49" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="46"/>
+      <c r="A50" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="56"/>
       <c r="C50" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="59"/>
-      <c r="B53" s="48"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickTop="1">
@@ -2364,23 +2385,23 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="40"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="52"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickTop="1"/>
@@ -2389,97 +2410,97 @@
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="36"/>
+      <c r="B63" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="46"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="36"/>
+      <c r="B64" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="46"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="55"/>
+      <c r="B65" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="48"/>
     </row>
     <row r="66" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="36"/>
+      <c r="A68" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="46"/>
       <c r="C68" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="44"/>
+      <c r="A69" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="42"/>
       <c r="C69" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="46"/>
+      <c r="A70" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="56"/>
       <c r="C70" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="64"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="59"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="12"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="59"/>
-      <c r="B73" s="48"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="59"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickTop="1">
@@ -2502,23 +2523,23 @@
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="40"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="52"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="22"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickTop="1"/>
@@ -2527,101 +2548,101 @@
       <c r="A84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="36"/>
+      <c r="B84" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="46"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="36"/>
+      <c r="B85" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="46"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" thickBot="1">
       <c r="A86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="55"/>
+      <c r="B86" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="66"/>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A87" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C87" s="8"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="38"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="46"/>
+      <c r="C89" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="11" t="s">
+      <c r="B90" s="46"/>
+      <c r="C90" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="41" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="44"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30">
-      <c r="A92" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="46"/>
+      <c r="A92" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="56"/>
       <c r="C92" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="59"/>
-      <c r="B93" s="48"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="12"/>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="59"/>
-      <c r="B94" s="48"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="12"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="59"/>
-      <c r="B95" s="48"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="13"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A96" s="49"/>
-      <c r="B96" s="50"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="14"/>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickTop="1">
@@ -2644,23 +2665,23 @@
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="39" t="s">
+      <c r="A100" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="40"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="52"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="22"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickTop="1"/>
@@ -2669,101 +2690,101 @@
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C106" s="36"/>
+      <c r="B106" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="46"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C107" s="36"/>
+      <c r="B107" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" s="46"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1">
       <c r="A108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="55"/>
+      <c r="B108" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="48"/>
     </row>
     <row r="109" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A109" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="38"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="56" t="s">
+      <c r="A111" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="46"/>
+      <c r="C111" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="36"/>
-      <c r="C111" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="56" t="s">
+      <c r="B112" s="46"/>
+      <c r="C112" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A113" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A113" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B113" s="61"/>
+      <c r="B113" s="60"/>
       <c r="C113" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30">
-      <c r="A114" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B114" s="46"/>
+      <c r="A114" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" s="56"/>
       <c r="C114" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="59"/>
-      <c r="B115" s="48"/>
+      <c r="A115" s="52"/>
+      <c r="B115" s="44"/>
       <c r="C115" s="12"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="59"/>
-      <c r="B116" s="48"/>
+      <c r="A116" s="52"/>
+      <c r="B116" s="44"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="59"/>
-      <c r="B117" s="48"/>
+      <c r="A117" s="52"/>
+      <c r="B117" s="44"/>
       <c r="C117" s="13"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A118" s="49"/>
-      <c r="B118" s="50"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="14"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickTop="1">
@@ -2786,23 +2807,23 @@
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="30">
-      <c r="A122" s="39" t="s">
+      <c r="A122" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B122" s="40"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="52"/>
+      <c r="B123" s="40"/>
       <c r="C123" s="22"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickTop="1"/>
@@ -2811,101 +2832,101 @@
       <c r="A127" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C127" s="36"/>
+      <c r="B127" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="46"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C128" s="36"/>
+      <c r="B128" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="46"/>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1">
       <c r="A129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" s="55"/>
+      <c r="B129" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C129" s="48"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A130" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C130" s="8"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="38"/>
+      <c r="B131" s="50"/>
       <c r="C131" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="56" t="s">
+      <c r="A132" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" s="46"/>
+      <c r="C132" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="46"/>
+      <c r="C133" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" s="42"/>
+      <c r="C134" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30">
+      <c r="A135" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" s="56"/>
+      <c r="C135" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B132" s="36"/>
-      <c r="C132" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B133" s="36"/>
-      <c r="C133" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134" s="44"/>
-      <c r="C134" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="30">
-      <c r="A135" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B135" s="46"/>
-      <c r="C135" s="24" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="59"/>
-      <c r="B136" s="48"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="12"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="59"/>
-      <c r="B137" s="48"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="12"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="59"/>
-      <c r="B138" s="48"/>
+      <c r="A138" s="52"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="13"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="49"/>
-      <c r="B139" s="50"/>
+      <c r="A139" s="35"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="14"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" thickTop="1">
@@ -2928,23 +2949,23 @@
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="30">
-      <c r="A143" s="39" t="s">
+      <c r="A143" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="40"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A144" s="51" t="s">
+      <c r="A144" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="52"/>
+      <c r="B144" s="40"/>
       <c r="C144" s="22"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" thickTop="1"/>
@@ -2953,101 +2974,101 @@
       <c r="A148" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C148" s="36"/>
+      <c r="B148" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" s="46"/>
     </row>
     <row r="149" spans="1:3" ht="33" customHeight="1">
       <c r="A149" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C149" s="42"/>
+      <c r="B149" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C149" s="58"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" thickBot="1">
       <c r="A150" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C150" s="55"/>
+      <c r="B150" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" s="48"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A151" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C151" s="8"/>
     </row>
     <row r="152" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A152" s="37" t="s">
+      <c r="A152" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="38"/>
+      <c r="B152" s="50"/>
       <c r="C152" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="56" t="s">
+      <c r="A153" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B153" s="46"/>
+      <c r="C153" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B153" s="36"/>
-      <c r="C153" s="11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="56" t="s">
+      <c r="A154" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="46"/>
+      <c r="C154" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B154" s="36"/>
-      <c r="C154" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155" s="44"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="30">
-      <c r="A156" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B156" s="46"/>
+      <c r="A156" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="56"/>
       <c r="C156" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="59"/>
-      <c r="B157" s="48"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="12"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="59"/>
-      <c r="B158" s="48"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="12"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="59"/>
-      <c r="B159" s="48"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="13"/>
     </row>
     <row r="160" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A160" s="49"/>
-      <c r="B160" s="50"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="36"/>
       <c r="C160" s="14"/>
     </row>
     <row r="161" spans="1:3" ht="15.75" thickTop="1">
@@ -3070,23 +3091,23 @@
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="39" t="s">
+      <c r="A164" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B164" s="40"/>
+      <c r="B164" s="38"/>
       <c r="C164" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A165" s="51" t="s">
+      <c r="A165" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B165" s="52"/>
+      <c r="B165" s="40"/>
       <c r="C165" s="22"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3095,101 +3116,101 @@
       <c r="A169" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C169" s="36"/>
+      <c r="B169" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" s="46"/>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C170" s="42"/>
+      <c r="B170" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="58"/>
     </row>
     <row r="171" spans="1:3" ht="15.75" thickBot="1">
       <c r="A171" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="55"/>
+      <c r="B171" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" s="48"/>
     </row>
     <row r="172" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A172" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C172" s="8"/>
     </row>
     <row r="173" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A173" s="37" t="s">
+      <c r="A173" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B173" s="38"/>
+      <c r="B173" s="50"/>
       <c r="C173" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="56" t="s">
+      <c r="A174" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" s="46"/>
+      <c r="C174" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B174" s="36"/>
-      <c r="C174" s="11" t="s">
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="56" t="s">
+      <c r="B175" s="46"/>
+      <c r="C175" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="42"/>
+      <c r="C176" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30">
+      <c r="A177" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B177" s="56"/>
+      <c r="C177" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B175" s="36"/>
-      <c r="C175" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B176" s="44"/>
-      <c r="C176" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="30">
-      <c r="A177" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B177" s="46"/>
-      <c r="C177" s="24" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="59"/>
-      <c r="B178" s="48"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="12"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="59"/>
-      <c r="B179" s="48"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="44"/>
       <c r="C179" s="12"/>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="59"/>
-      <c r="B180" s="48"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="44"/>
       <c r="C180" s="13"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A181" s="49"/>
-      <c r="B181" s="50"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="14"/>
     </row>
     <row r="182" spans="1:3" ht="15.75" thickTop="1">
@@ -3212,23 +3233,23 @@
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="39" t="s">
+      <c r="A185" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B185" s="40"/>
+      <c r="B185" s="38"/>
       <c r="C185" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A186" s="51" t="s">
+      <c r="A186" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B186" s="52"/>
+      <c r="B186" s="40"/>
       <c r="C186" s="22"/>
     </row>
     <row r="187" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3237,113 +3258,113 @@
       <c r="A190" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B190" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C190" s="36"/>
+      <c r="B190" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C190" s="46"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B191" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C191" s="42"/>
+      <c r="B191" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C191" s="58"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" thickBot="1">
       <c r="A192" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C192" s="55"/>
+      <c r="B192" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192" s="48"/>
     </row>
     <row r="193" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A193" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A194" s="37" t="s">
+      <c r="A194" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B194" s="38"/>
+      <c r="B194" s="50"/>
       <c r="C194" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="56" t="s">
+      <c r="A195" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B195" s="46"/>
+      <c r="C195" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B195" s="36"/>
-      <c r="C195" s="11" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="41" t="s">
+      <c r="A196" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B196" s="58"/>
+      <c r="C196" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B197" s="42"/>
+      <c r="C197" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="B196" s="42"/>
-      <c r="C196" s="11" t="s">
+      <c r="B198" s="56"/>
+      <c r="C198" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="43" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B197" s="44"/>
-      <c r="C197" s="11" t="s">
+      <c r="B199" s="44"/>
+      <c r="C199" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="45" t="s">
+    <row r="200" spans="1:3">
+      <c r="A200" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B198" s="46"/>
-      <c r="C198" s="24" t="s">
+      <c r="B200" s="44"/>
+      <c r="C200" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="47" t="s">
+    <row r="201" spans="1:3" ht="33" customHeight="1">
+      <c r="A201" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B199" s="48"/>
-      <c r="C199" s="12" t="s">
+      <c r="B201" s="44"/>
+      <c r="C201" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B200" s="48"/>
-      <c r="C200" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="33" customHeight="1">
-      <c r="A201" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="B201" s="48"/>
-      <c r="C201" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="202" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A202" s="49"/>
-      <c r="B202" s="50"/>
+      <c r="A202" s="35"/>
+      <c r="B202" s="36"/>
       <c r="C202" s="14"/>
     </row>
     <row r="203" spans="1:3" ht="15.75" thickTop="1">
@@ -3366,21 +3387,21 @@
       </c>
       <c r="B205" s="9"/>
       <c r="C205" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="39" t="s">
+      <c r="A206" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B206" s="40"/>
+      <c r="B206" s="38"/>
       <c r="C206" s="27"/>
     </row>
     <row r="207" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A207" s="51" t="s">
+      <c r="A207" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B207" s="52"/>
+      <c r="B207" s="40"/>
       <c r="C207" s="22"/>
     </row>
     <row r="208" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3389,101 +3410,101 @@
       <c r="A211" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C211" s="36"/>
+      <c r="B211" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" s="46"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B212" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C212" s="42"/>
+      <c r="B212" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" s="58"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" thickBot="1">
       <c r="A213" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C213" s="55"/>
+      <c r="B213" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C213" s="48"/>
     </row>
     <row r="214" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A214" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C214" s="8"/>
     </row>
     <row r="215" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A215" s="37" t="s">
+      <c r="A215" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B215" s="38"/>
+      <c r="B215" s="50"/>
       <c r="C215" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="56" t="s">
+      <c r="A216" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B216" s="46"/>
+      <c r="C216" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B216" s="36"/>
-      <c r="C216" s="11" t="s">
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="51" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="56" t="s">
+      <c r="B217" s="46"/>
+      <c r="C217" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B217" s="36"/>
-      <c r="C217" s="11" t="s">
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="43" t="s">
+      <c r="B218" s="42"/>
+      <c r="C218" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B218" s="44"/>
-      <c r="C218" s="11" t="s">
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="55" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="45" t="s">
+      <c r="B219" s="56"/>
+      <c r="C219" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B219" s="46"/>
-      <c r="C219" s="24" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="59"/>
-      <c r="B220" s="48"/>
+      <c r="A220" s="52"/>
+      <c r="B220" s="44"/>
       <c r="C220" s="12"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="59"/>
-      <c r="B221" s="48"/>
+      <c r="A221" s="52"/>
+      <c r="B221" s="44"/>
       <c r="C221" s="12"/>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="59"/>
-      <c r="B222" s="48"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="44"/>
       <c r="C222" s="13"/>
     </row>
     <row r="223" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A223" s="49"/>
-      <c r="B223" s="50"/>
+      <c r="A223" s="35"/>
+      <c r="B223" s="36"/>
       <c r="C223" s="14"/>
     </row>
     <row r="224" spans="1:3" ht="15.75" thickTop="1">
@@ -3492,7 +3513,7 @@
       </c>
       <c r="B224" s="16"/>
       <c r="C224" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3508,21 +3529,21 @@
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="39" t="s">
+      <c r="A227" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B227" s="40"/>
+      <c r="B227" s="38"/>
       <c r="C227" s="27"/>
     </row>
     <row r="228" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A228" s="51" t="s">
+      <c r="A228" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B228" s="52"/>
+      <c r="B228" s="40"/>
       <c r="C228" s="22"/>
     </row>
     <row r="229" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3531,117 +3552,117 @@
       <c r="A232" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B232" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C232" s="36"/>
+      <c r="B232" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C232" s="46"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C233" s="42"/>
+      <c r="B233" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C233" s="58"/>
     </row>
     <row r="234" spans="1:3" ht="15.75" thickBot="1">
       <c r="A234" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B234" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C234" s="55"/>
+      <c r="B234" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C234" s="48"/>
     </row>
     <row r="235" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A235" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C235" s="8"/>
     </row>
     <row r="236" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A236" s="37" t="s">
+      <c r="A236" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="38"/>
+      <c r="B236" s="50"/>
       <c r="C236" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="56" t="s">
+      <c r="A237" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B237" s="46"/>
+      <c r="C237" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B237" s="36"/>
-      <c r="C237" s="11" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="56" t="s">
+      <c r="A238" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B238" s="46"/>
+      <c r="C238" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B238" s="36"/>
-      <c r="C238" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B239" s="36"/>
+      <c r="B239" s="46"/>
       <c r="C239" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15" customHeight="1">
-      <c r="A240" s="56" t="s">
+      <c r="A240" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B240" s="46"/>
+      <c r="C240" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B240" s="36"/>
-      <c r="C240" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B241" s="44"/>
+      <c r="B241" s="42"/>
       <c r="C241" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="43" t="s">
+      <c r="A242" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B242" s="42"/>
+      <c r="C242" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B242" s="44"/>
-      <c r="C242" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B243" s="44"/>
+      <c r="B243" s="42"/>
       <c r="C243" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A244" s="62" t="s">
+      <c r="A244" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B244" s="36"/>
+      <c r="C244" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="B244" s="50"/>
-      <c r="C244" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15.75" thickTop="1">
@@ -3650,7 +3671,7 @@
       </c>
       <c r="B245" s="16"/>
       <c r="C245" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3666,21 +3687,21 @@
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="39" t="s">
+      <c r="A248" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B248" s="40"/>
+      <c r="B248" s="38"/>
       <c r="C248" s="27"/>
     </row>
     <row r="249" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A249" s="51" t="s">
+      <c r="A249" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B249" s="52"/>
+      <c r="B249" s="40"/>
       <c r="C249" s="22"/>
     </row>
     <row r="250" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3689,93 +3710,93 @@
       <c r="A253" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B253" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C253" s="36"/>
+      <c r="B253" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C253" s="46"/>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B254" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C254" s="42"/>
+      <c r="B254" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C254" s="58"/>
     </row>
     <row r="255" spans="1:3" ht="15.75" thickBot="1">
       <c r="A255" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C255" s="55"/>
+      <c r="B255" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C255" s="48"/>
     </row>
     <row r="256" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A256" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C256" s="8"/>
     </row>
     <row r="257" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A257" s="37" t="s">
+      <c r="A257" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B257" s="38"/>
+      <c r="B257" s="50"/>
       <c r="C257" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B258" s="36"/>
+      <c r="A258" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258" s="46"/>
       <c r="C258" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="56" t="s">
+      <c r="A259" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B259" s="46"/>
+      <c r="C259" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B259" s="36"/>
-      <c r="C259" s="11" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="43"/>
-      <c r="B260" s="44"/>
+      <c r="A260" s="41"/>
+      <c r="B260" s="42"/>
       <c r="C260" s="11"/>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="45"/>
-      <c r="B261" s="46"/>
+      <c r="A261" s="55"/>
+      <c r="B261" s="56"/>
       <c r="C261" s="24"/>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="43"/>
-      <c r="B262" s="44"/>
+      <c r="A262" s="41"/>
+      <c r="B262" s="42"/>
       <c r="C262" s="11"/>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="43"/>
-      <c r="B263" s="44"/>
+      <c r="A263" s="41"/>
+      <c r="B263" s="42"/>
       <c r="C263" s="11"/>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="43"/>
-      <c r="B264" s="44"/>
+      <c r="A264" s="41"/>
+      <c r="B264" s="42"/>
       <c r="C264" s="11"/>
     </row>
     <row r="265" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A265" s="62"/>
-      <c r="B265" s="50"/>
+      <c r="A265" s="54"/>
+      <c r="B265" s="36"/>
       <c r="C265" s="14"/>
     </row>
     <row r="266" spans="1:3" ht="15.75" thickTop="1">
@@ -3798,23 +3819,23 @@
       </c>
       <c r="B268" s="9"/>
       <c r="C268" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="39" t="s">
+      <c r="A269" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B269" s="40"/>
+      <c r="B269" s="38"/>
       <c r="C269" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="51" t="s">
+      <c r="A270" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B270" s="52"/>
+      <c r="B270" s="40"/>
       <c r="C270" s="22"/>
     </row>
     <row r="271" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3823,97 +3844,97 @@
       <c r="A274" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B274" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C274" s="36"/>
+      <c r="B274" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C274" s="46"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B275" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C275" s="36"/>
+      <c r="B275" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C275" s="46"/>
     </row>
     <row r="276" spans="1:3" ht="15.75" thickBot="1">
       <c r="A276" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B276" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C276" s="55"/>
+      <c r="B276" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C276" s="48"/>
     </row>
     <row r="277" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A277" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C277" s="8"/>
     </row>
     <row r="278" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A278" s="37" t="s">
+      <c r="A278" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B278" s="38"/>
+      <c r="B278" s="50"/>
       <c r="C278" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B279" s="44"/>
+      <c r="A279" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" s="42"/>
       <c r="C279" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="56" t="s">
+      <c r="A280" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B280" s="46"/>
+      <c r="C280" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B281" s="42"/>
+      <c r="C281" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B280" s="36"/>
-      <c r="C280" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B281" s="44"/>
-      <c r="C281" s="11" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="43"/>
-      <c r="B282" s="44"/>
+      <c r="A282" s="41"/>
+      <c r="B282" s="42"/>
       <c r="C282" s="11"/>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="59"/>
-      <c r="B283" s="48"/>
+      <c r="A283" s="52"/>
+      <c r="B283" s="44"/>
       <c r="C283" s="12"/>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="59"/>
-      <c r="B284" s="48"/>
+      <c r="A284" s="52"/>
+      <c r="B284" s="44"/>
       <c r="C284" s="12"/>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="59"/>
-      <c r="B285" s="48"/>
+      <c r="A285" s="52"/>
+      <c r="B285" s="44"/>
       <c r="C285" s="13"/>
     </row>
     <row r="286" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A286" s="49"/>
-      <c r="B286" s="50"/>
+      <c r="A286" s="35"/>
+      <c r="B286" s="36"/>
       <c r="C286" s="14"/>
     </row>
     <row r="287" spans="1:3" ht="15.75" thickTop="1">
@@ -3938,21 +3959,21 @@
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="39" t="s">
+      <c r="A290" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="40"/>
+      <c r="B290" s="38"/>
       <c r="C290" s="21"/>
     </row>
     <row r="291" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A291" s="51" t="s">
+      <c r="A291" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B291" s="52"/>
+      <c r="B291" s="40"/>
       <c r="C291" s="22"/>
     </row>
     <row r="292" spans="1:3" ht="15.75" thickTop="1"/>
@@ -3961,113 +3982,113 @@
       <c r="A298" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B298" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C298" s="36"/>
+      <c r="B298" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C298" s="46"/>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B299" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C299" s="36"/>
+      <c r="B299" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C299" s="46"/>
     </row>
     <row r="300" spans="1:3" ht="15.75" thickBot="1">
       <c r="A300" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C300" s="55"/>
+      <c r="B300" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C300" s="48"/>
     </row>
     <row r="301" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A301" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C301" s="8"/>
     </row>
     <row r="302" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A302" s="37" t="s">
+      <c r="A302" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B302" s="38"/>
+      <c r="B302" s="50"/>
       <c r="C302" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="15" customHeight="1">
-      <c r="A303" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B303" s="36"/>
+      <c r="A303" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B303" s="46"/>
       <c r="C303" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B304" s="36"/>
+      <c r="A304" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304" s="46"/>
       <c r="C304" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B305" s="44"/>
+      <c r="A305" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B305" s="42"/>
       <c r="C305" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B306" s="44"/>
+      <c r="A306" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B306" s="42"/>
       <c r="C306" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B307" s="44"/>
+      <c r="C307" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="47" t="s">
+      <c r="B308" s="44"/>
+      <c r="C308" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B307" s="48"/>
-      <c r="C307" s="12" t="s">
+      <c r="B309" s="44"/>
+      <c r="C309" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B308" s="48"/>
-      <c r="C308" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B309" s="48"/>
-      <c r="C309" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="310" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A310" s="49"/>
-      <c r="B310" s="50"/>
+      <c r="A310" s="35"/>
+      <c r="B310" s="36"/>
       <c r="C310" s="14"/>
     </row>
     <row r="311" spans="1:3" ht="15.75" thickTop="1">
@@ -4090,21 +4111,21 @@
       </c>
       <c r="B313" s="9"/>
       <c r="C313" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="39" t="s">
+      <c r="A314" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B314" s="40"/>
+      <c r="B314" s="38"/>
       <c r="C314" s="21"/>
     </row>
     <row r="315" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A315" s="51" t="s">
+      <c r="A315" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B315" s="52"/>
+      <c r="B315" s="40"/>
       <c r="C315" s="22"/>
     </row>
     <row r="316" spans="1:3" ht="15.75" thickTop="1"/>
@@ -4113,105 +4134,105 @@
       <c r="A320" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B320" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C320" s="36"/>
+      <c r="B320" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C320" s="46"/>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B321" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C321" s="42"/>
+      <c r="B321" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C321" s="58"/>
     </row>
     <row r="322" spans="1:3" ht="15.75" thickBot="1">
       <c r="A322" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B322" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C322" s="55"/>
+      <c r="B322" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C322" s="48"/>
     </row>
     <row r="323" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A323" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C323" s="8"/>
     </row>
     <row r="324" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A324" s="37" t="s">
+      <c r="A324" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B324" s="38"/>
+      <c r="B324" s="50"/>
       <c r="C324" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="56" t="s">
+      <c r="A325" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B325" s="46"/>
+      <c r="C325" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B325" s="36"/>
-      <c r="C325" s="11" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="43" t="s">
+      <c r="A326" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B326" s="42"/>
+      <c r="C326" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A327" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B327" s="42"/>
+      <c r="C327" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B328" s="56"/>
+      <c r="C328" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="B326" s="44"/>
-      <c r="C326" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A327" s="43" t="s">
+      <c r="B329" s="44"/>
+      <c r="C329" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B327" s="44"/>
-      <c r="C327" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B328" s="46"/>
-      <c r="C328" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B329" s="48"/>
-      <c r="C329" s="30" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="59"/>
-      <c r="B330" s="48"/>
+      <c r="A330" s="52"/>
+      <c r="B330" s="44"/>
       <c r="C330" s="12"/>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="59"/>
-      <c r="B331" s="48"/>
+      <c r="A331" s="52"/>
+      <c r="B331" s="44"/>
       <c r="C331" s="13"/>
     </row>
     <row r="332" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A332" s="49"/>
-      <c r="B332" s="50"/>
+      <c r="A332" s="35"/>
+      <c r="B332" s="36"/>
       <c r="C332" s="14"/>
     </row>
     <row r="333" spans="1:3" ht="15.75" thickTop="1">
@@ -4220,7 +4241,7 @@
       </c>
       <c r="B333" s="16"/>
       <c r="C333" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4236,21 +4257,21 @@
       </c>
       <c r="B335" s="9"/>
       <c r="C335" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="39" t="s">
+      <c r="A336" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B336" s="40"/>
+      <c r="B336" s="38"/>
       <c r="C336" s="27"/>
     </row>
     <row r="337" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A337" s="51" t="s">
+      <c r="A337" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B337" s="52"/>
+      <c r="B337" s="40"/>
       <c r="C337" s="22"/>
     </row>
     <row r="338" spans="1:3" ht="15.75" thickTop="1"/>
@@ -4259,93 +4280,93 @@
       <c r="A343" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B343" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C343" s="36"/>
+      <c r="B343" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C343" s="46"/>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B344" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C344" s="42"/>
+      <c r="B344" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C344" s="58"/>
     </row>
     <row r="345" spans="1:3" ht="15.75" thickBot="1">
       <c r="A345" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B345" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C345" s="55"/>
+      <c r="B345" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C345" s="48"/>
     </row>
     <row r="346" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A346" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C346" s="8"/>
     </row>
     <row r="347" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A347" s="37" t="s">
+      <c r="A347" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B347" s="38"/>
+      <c r="B347" s="50"/>
       <c r="C347" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B348" s="36"/>
+      <c r="A348" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348" s="46"/>
       <c r="C348" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="30" customHeight="1">
-      <c r="A349" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B349" s="42"/>
+      <c r="A349" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B349" s="58"/>
       <c r="C349" s="29" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="43"/>
-      <c r="B350" s="44"/>
+      <c r="A350" s="41"/>
+      <c r="B350" s="42"/>
       <c r="C350" s="11"/>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="45"/>
-      <c r="B351" s="46"/>
+      <c r="A351" s="55"/>
+      <c r="B351" s="56"/>
       <c r="C351" s="24"/>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="43"/>
-      <c r="B352" s="44"/>
+      <c r="A352" s="41"/>
+      <c r="B352" s="42"/>
       <c r="C352" s="11"/>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="43"/>
-      <c r="B353" s="44"/>
+      <c r="A353" s="41"/>
+      <c r="B353" s="42"/>
       <c r="C353" s="11"/>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="43"/>
-      <c r="B354" s="44"/>
+      <c r="A354" s="41"/>
+      <c r="B354" s="42"/>
       <c r="C354" s="11"/>
     </row>
     <row r="355" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A355" s="62"/>
-      <c r="B355" s="50"/>
+      <c r="A355" s="54"/>
+      <c r="B355" s="36"/>
       <c r="C355" s="14"/>
     </row>
     <row r="356" spans="1:3" ht="15.75" thickTop="1">
@@ -4368,23 +4389,23 @@
       </c>
       <c r="B358" s="9"/>
       <c r="C358" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="39" t="s">
+      <c r="A359" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B359" s="40"/>
+      <c r="B359" s="38"/>
       <c r="C359" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A360" s="51" t="s">
+      <c r="A360" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B360" s="52"/>
+      <c r="B360" s="40"/>
       <c r="C360" s="22"/>
     </row>
     <row r="361" spans="1:3" ht="15.75" thickTop="1"/>
@@ -4393,93 +4414,93 @@
       <c r="A365" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B365" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C365" s="36"/>
+      <c r="B365" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C365" s="46"/>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B366" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C366" s="42"/>
+      <c r="B366" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C366" s="58"/>
     </row>
     <row r="367" spans="1:3" ht="15.75" thickBot="1">
       <c r="A367" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B367" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C367" s="55"/>
+      <c r="B367" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C367" s="48"/>
     </row>
     <row r="368" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A368" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C368" s="8"/>
     </row>
     <row r="369" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A369" s="37" t="s">
+      <c r="A369" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B369" s="38"/>
+      <c r="B369" s="50"/>
       <c r="C369" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:3">
-      <c r="A370" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B370" s="36"/>
+      <c r="A370" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B370" s="46"/>
       <c r="C370" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="371" spans="1:3">
-      <c r="A371" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B371" s="42"/>
+      <c r="A371" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B371" s="58"/>
       <c r="C371" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" s="43"/>
-      <c r="B372" s="44"/>
+      <c r="A372" s="41"/>
+      <c r="B372" s="42"/>
       <c r="C372" s="11"/>
     </row>
     <row r="373" spans="1:3">
-      <c r="A373" s="45"/>
-      <c r="B373" s="46"/>
+      <c r="A373" s="55"/>
+      <c r="B373" s="56"/>
       <c r="C373" s="24"/>
     </row>
     <row r="374" spans="1:3">
-      <c r="A374" s="47"/>
-      <c r="B374" s="48"/>
+      <c r="A374" s="43"/>
+      <c r="B374" s="44"/>
       <c r="C374" s="12"/>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="47"/>
-      <c r="B375" s="48"/>
+      <c r="A375" s="43"/>
+      <c r="B375" s="44"/>
       <c r="C375" s="12"/>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="47"/>
-      <c r="B376" s="48"/>
+      <c r="A376" s="43"/>
+      <c r="B376" s="44"/>
       <c r="C376" s="13"/>
     </row>
     <row r="377" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A377" s="49"/>
-      <c r="B377" s="50"/>
+      <c r="A377" s="35"/>
+      <c r="B377" s="36"/>
       <c r="C377" s="14"/>
     </row>
     <row r="378" spans="1:3" ht="15.75" thickTop="1">
@@ -4502,21 +4523,21 @@
       </c>
       <c r="B380" s="9"/>
       <c r="C380" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="381" spans="1:3">
-      <c r="A381" s="39" t="s">
+      <c r="A381" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B381" s="40"/>
+      <c r="B381" s="38"/>
       <c r="C381" s="27"/>
     </row>
     <row r="382" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A382" s="51" t="s">
+      <c r="A382" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B382" s="52"/>
+      <c r="B382" s="40"/>
       <c r="C382" s="22"/>
     </row>
     <row r="383" spans="1:3" ht="15.75" thickTop="1"/>
@@ -4525,117 +4546,117 @@
       <c r="A386" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B386" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C386" s="36"/>
+      <c r="B386" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C386" s="46"/>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B387" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C387" s="36"/>
+      <c r="B387" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C387" s="46"/>
     </row>
     <row r="388" spans="1:3" ht="15.75" thickBot="1">
       <c r="A388" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B388" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C388" s="55"/>
+      <c r="B388" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C388" s="48"/>
     </row>
     <row r="389" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A389" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C389" s="8"/>
     </row>
     <row r="390" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A390" s="37" t="s">
+      <c r="A390" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B390" s="38"/>
+      <c r="B390" s="50"/>
       <c r="C390" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="A391" s="56" t="s">
+      <c r="A391" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B391" s="46"/>
+      <c r="C391" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B392" s="46"/>
+      <c r="C392" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B393" s="60"/>
+      <c r="C393" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="30">
+      <c r="A394" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B394" s="56"/>
+      <c r="C394" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="30">
+      <c r="A395" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B391" s="36"/>
-      <c r="C391" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="A392" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B392" s="36"/>
-      <c r="C392" s="11" t="s">
+      <c r="B395" s="44"/>
+      <c r="C395" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="30">
+      <c r="A396" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B396" s="44"/>
+      <c r="C396" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="30">
+      <c r="A397" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B397" s="44"/>
+      <c r="C397" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A398" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B398" s="44"/>
+      <c r="C398" s="14" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
-      <c r="A393" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B393" s="61"/>
-      <c r="C393" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="30">
-      <c r="A394" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B394" s="46"/>
-      <c r="C394" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="30">
-      <c r="A395" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B395" s="48"/>
-      <c r="C395" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="30">
-      <c r="A396" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B396" s="48"/>
-      <c r="C396" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="30">
-      <c r="A397" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B397" s="48"/>
-      <c r="C397" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="30.75" thickBot="1">
-      <c r="A398" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B398" s="48"/>
-      <c r="C398" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="15.75" thickTop="1">
@@ -4658,23 +4679,23 @@
       </c>
       <c r="B401" s="9"/>
       <c r="C401" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="39" t="s">
+      <c r="A402" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B402" s="40"/>
+      <c r="B402" s="38"/>
       <c r="C402" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A403" s="51" t="s">
+      <c r="A403" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B403" s="52"/>
+      <c r="B403" s="40"/>
       <c r="C403" s="22"/>
     </row>
     <row r="404" spans="1:3" ht="15.75" thickTop="1"/>
@@ -4683,105 +4704,105 @@
       <c r="A408" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B408" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C408" s="36"/>
+      <c r="B408" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C408" s="46"/>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B409" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C409" s="36"/>
+      <c r="B409" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C409" s="46"/>
     </row>
     <row r="410" spans="1:3" ht="15.75" thickBot="1">
       <c r="A410" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B410" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C410" s="55"/>
+      <c r="B410" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C410" s="48"/>
     </row>
     <row r="411" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A411" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C411" s="8"/>
     </row>
     <row r="412" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A412" s="37" t="s">
+      <c r="A412" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B412" s="38"/>
+      <c r="B412" s="50"/>
       <c r="C412" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:3">
-      <c r="A413" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B413" s="36"/>
+      <c r="A413" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B413" s="46"/>
       <c r="C413" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:3">
-      <c r="A414" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B414" s="36"/>
+      <c r="A414" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B414" s="46"/>
       <c r="C414" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="415" spans="1:3">
-      <c r="A415" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B415" s="44"/>
+      <c r="A415" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B415" s="42"/>
       <c r="C415" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="A416" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B416" s="44"/>
+      <c r="A416" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B416" s="42"/>
       <c r="C416" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="30" customHeight="1">
-      <c r="A417" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B417" s="58"/>
+      <c r="A417" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B417" s="64"/>
       <c r="C417" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="418" spans="1:3">
-      <c r="A418" s="59"/>
-      <c r="B418" s="48"/>
+      <c r="A418" s="52"/>
+      <c r="B418" s="44"/>
       <c r="C418" s="12"/>
     </row>
     <row r="419" spans="1:3">
-      <c r="A419" s="59"/>
-      <c r="B419" s="48"/>
+      <c r="A419" s="52"/>
+      <c r="B419" s="44"/>
       <c r="C419" s="13"/>
     </row>
     <row r="420" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A420" s="49"/>
-      <c r="B420" s="50"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="36"/>
       <c r="C420" s="14"/>
     </row>
     <row r="421" spans="1:3" ht="15.75" thickTop="1">
@@ -4806,23 +4827,23 @@
       </c>
       <c r="B423" s="9"/>
       <c r="C423" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" s="39" t="s">
+      <c r="A424" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B424" s="40"/>
+      <c r="B424" s="38"/>
       <c r="C424" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A425" s="51" t="s">
+      <c r="A425" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B425" s="52"/>
+      <c r="B425" s="40"/>
       <c r="C425" s="22"/>
     </row>
     <row r="426" spans="1:3" ht="15.75" thickTop="1"/>
@@ -4831,113 +4852,113 @@
       <c r="A430" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B430" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C430" s="36"/>
+      <c r="B430" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C430" s="46"/>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B431" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C431" s="36"/>
+      <c r="B431" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C431" s="46"/>
     </row>
     <row r="432" spans="1:3" ht="15.75" thickBot="1">
       <c r="A432" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B432" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C432" s="55"/>
+      <c r="B432" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C432" s="48"/>
     </row>
     <row r="433" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A433" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C433" s="8"/>
     </row>
     <row r="434" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A434" s="37" t="s">
+      <c r="A434" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B434" s="38"/>
+      <c r="B434" s="50"/>
       <c r="C434" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B435" s="36"/>
+      <c r="A435" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B435" s="46"/>
       <c r="C435" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="436" spans="1:3">
-      <c r="A436" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B436" s="36"/>
+      <c r="A436" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B436" s="46"/>
       <c r="C436" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B437" s="44"/>
+      <c r="A437" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B437" s="42"/>
       <c r="C437" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="438" spans="1:3">
-      <c r="A438" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B438" s="44"/>
+      <c r="A438" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B438" s="42"/>
       <c r="C438" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="A439" s="57" t="s">
+      <c r="A439" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B439" s="64"/>
+      <c r="C439" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B440" s="44"/>
+      <c r="C440" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B439" s="58"/>
-      <c r="C439" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B440" s="48"/>
-      <c r="C440" s="30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="A441" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B441" s="48"/>
+      <c r="B441" s="44"/>
       <c r="C441" s="30" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A442" s="49"/>
-      <c r="B442" s="50"/>
+      <c r="A442" s="35"/>
+      <c r="B442" s="36"/>
       <c r="C442" s="14"/>
     </row>
     <row r="443" spans="1:3" ht="15.75" thickTop="1">
@@ -4960,23 +4981,23 @@
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="39" t="s">
+      <c r="A446" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="40"/>
+      <c r="B446" s="38"/>
       <c r="C446" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A447" s="51" t="s">
+      <c r="A447" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B447" s="52"/>
+      <c r="B447" s="40"/>
       <c r="C447" s="22"/>
     </row>
     <row r="448" spans="1:3" ht="15.75" thickTop="1"/>
@@ -4985,101 +5006,101 @@
       <c r="A451" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B451" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C451" s="36"/>
+      <c r="B451" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C451" s="46"/>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B452" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C452" s="42"/>
+      <c r="B452" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C452" s="58"/>
     </row>
     <row r="453" spans="1:3" ht="15.75" thickBot="1">
       <c r="A453" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B453" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C453" s="55"/>
+      <c r="B453" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C453" s="48"/>
     </row>
     <row r="454" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A454" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C454" s="8"/>
     </row>
     <row r="455" spans="1:3" ht="15.75" thickTop="1">
-      <c r="A455" s="37" t="s">
+      <c r="A455" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B455" s="38"/>
+      <c r="B455" s="50"/>
       <c r="C455" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="A456" s="56" t="s">
+      <c r="A456" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B456" s="46"/>
+      <c r="C456" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B457" s="58"/>
+      <c r="C457" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B458" s="42"/>
+      <c r="C458" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="B456" s="36"/>
-      <c r="C456" s="11" t="s">
+      <c r="B459" s="56"/>
+      <c r="C459" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
-      <c r="A457" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B457" s="42"/>
-      <c r="C457" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="A458" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="B458" s="44"/>
-      <c r="C458" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="A459" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B459" s="46"/>
-      <c r="C459" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
     <row r="460" spans="1:3">
-      <c r="A460" s="47"/>
-      <c r="B460" s="48"/>
+      <c r="A460" s="43"/>
+      <c r="B460" s="44"/>
       <c r="C460" s="12"/>
     </row>
     <row r="461" spans="1:3">
-      <c r="A461" s="47"/>
-      <c r="B461" s="48"/>
+      <c r="A461" s="43"/>
+      <c r="B461" s="44"/>
       <c r="C461" s="12"/>
     </row>
     <row r="462" spans="1:3">
-      <c r="A462" s="47"/>
-      <c r="B462" s="48"/>
+      <c r="A462" s="43"/>
+      <c r="B462" s="44"/>
       <c r="C462" s="13"/>
     </row>
     <row r="463" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A463" s="49"/>
-      <c r="B463" s="50"/>
+      <c r="A463" s="35"/>
+      <c r="B463" s="36"/>
       <c r="C463" s="14"/>
     </row>
     <row r="464" spans="1:3" ht="15.75" thickTop="1">
@@ -5102,21 +5123,21 @@
       </c>
       <c r="B466" s="9"/>
       <c r="C466" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="39" t="s">
+      <c r="A467" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B467" s="40"/>
+      <c r="B467" s="38"/>
       <c r="C467" s="27"/>
     </row>
     <row r="468" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A468" s="51" t="s">
+      <c r="A468" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B468" s="52"/>
+      <c r="B468" s="40"/>
       <c r="C468" s="22"/>
     </row>
     <row r="469" spans="1:4" ht="15.75" thickTop="1"/>
@@ -5125,28 +5146,28 @@
       <c r="A473" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B473" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C473" s="36"/>
+      <c r="B473" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C473" s="46"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B474" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C474" s="42"/>
+      <c r="B474" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C474" s="58"/>
     </row>
     <row r="475" spans="1:4" ht="15.75" thickBot="1">
       <c r="A475" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B475" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="C475" s="55"/>
+      <c r="B475" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C475" s="48"/>
       <c r="D475" s="1"/>
     </row>
     <row r="476" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
@@ -5154,61 +5175,61 @@
         <v>6</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C476" s="8"/>
     </row>
     <row r="477" spans="1:4" ht="15.75" thickTop="1">
-      <c r="A477" s="37" t="s">
+      <c r="A477" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B477" s="38"/>
+      <c r="B477" s="50"/>
       <c r="C477" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A478" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B478" s="42"/>
+      <c r="A478" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B478" s="58"/>
       <c r="C478" s="29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="41"/>
-      <c r="B479" s="42"/>
+      <c r="A479" s="59"/>
+      <c r="B479" s="58"/>
       <c r="C479" s="11"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="43"/>
-      <c r="B480" s="44"/>
+      <c r="A480" s="41"/>
+      <c r="B480" s="42"/>
       <c r="C480" s="11"/>
     </row>
     <row r="481" spans="1:3">
-      <c r="A481" s="45"/>
-      <c r="B481" s="46"/>
+      <c r="A481" s="55"/>
+      <c r="B481" s="56"/>
       <c r="C481" s="24"/>
     </row>
     <row r="482" spans="1:3">
-      <c r="A482" s="47"/>
-      <c r="B482" s="48"/>
+      <c r="A482" s="43"/>
+      <c r="B482" s="44"/>
       <c r="C482" s="12"/>
     </row>
     <row r="483" spans="1:3">
-      <c r="A483" s="47"/>
-      <c r="B483" s="48"/>
+      <c r="A483" s="43"/>
+      <c r="B483" s="44"/>
       <c r="C483" s="12"/>
     </row>
     <row r="484" spans="1:3">
-      <c r="A484" s="47"/>
-      <c r="B484" s="48"/>
+      <c r="A484" s="43"/>
+      <c r="B484" s="44"/>
       <c r="C484" s="13"/>
     </row>
     <row r="485" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A485" s="49"/>
-      <c r="B485" s="50"/>
+      <c r="A485" s="35"/>
+      <c r="B485" s="36"/>
       <c r="C485" s="14"/>
     </row>
     <row r="486" spans="1:3" ht="15.75" thickTop="1">
@@ -5231,328 +5252,26 @@
       </c>
       <c r="B488" s="9"/>
       <c r="C488" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="39" t="s">
+      <c r="A489" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B489" s="40"/>
+      <c r="B489" s="38"/>
       <c r="C489" s="27"/>
     </row>
     <row r="490" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A490" s="51" t="s">
+      <c r="A490" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B490" s="52"/>
+      <c r="B490" s="40"/>
       <c r="C490" s="22"/>
     </row>
     <row r="491" spans="1:3" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="321">
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A329:B329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="B345:C345"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:B348"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="A354:B354"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A360:B360"/>
-    <mergeCell ref="B365:C365"/>
-    <mergeCell ref="B366:C366"/>
-    <mergeCell ref="B367:C367"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A370:B370"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="A372:B372"/>
-    <mergeCell ref="A373:B373"/>
-    <mergeCell ref="A374:B374"/>
-    <mergeCell ref="A375:B375"/>
-    <mergeCell ref="A376:B376"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="A382:B382"/>
-    <mergeCell ref="B386:C386"/>
-    <mergeCell ref="B387:C387"/>
-    <mergeCell ref="B388:C388"/>
-    <mergeCell ref="A390:B390"/>
-    <mergeCell ref="A391:B391"/>
-    <mergeCell ref="A392:B392"/>
-    <mergeCell ref="A393:B393"/>
-    <mergeCell ref="A394:B394"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A396:B396"/>
-    <mergeCell ref="A397:B397"/>
-    <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A402:B402"/>
-    <mergeCell ref="A403:B403"/>
-    <mergeCell ref="B408:C408"/>
-    <mergeCell ref="B409:C409"/>
-    <mergeCell ref="B410:C410"/>
-    <mergeCell ref="A412:B412"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A414:B414"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A416:B416"/>
-    <mergeCell ref="A417:B417"/>
-    <mergeCell ref="A418:B418"/>
-    <mergeCell ref="A419:B419"/>
-    <mergeCell ref="A420:B420"/>
-    <mergeCell ref="A424:B424"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="B430:C430"/>
-    <mergeCell ref="B431:C431"/>
-    <mergeCell ref="A442:B442"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A447:B447"/>
-    <mergeCell ref="B432:C432"/>
-    <mergeCell ref="A434:B434"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A436:B436"/>
-    <mergeCell ref="A437:B437"/>
-    <mergeCell ref="A438:B438"/>
-    <mergeCell ref="A439:B439"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="B451:C451"/>
-    <mergeCell ref="B452:C452"/>
-    <mergeCell ref="B453:C453"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A456:B456"/>
-    <mergeCell ref="A457:B457"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A459:B459"/>
-    <mergeCell ref="A460:B460"/>
     <mergeCell ref="A490:B490"/>
     <mergeCell ref="A461:B461"/>
     <mergeCell ref="A462:B462"/>
@@ -5572,6 +5291,308 @@
     <mergeCell ref="A483:B483"/>
     <mergeCell ref="A484:B484"/>
     <mergeCell ref="A485:B485"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="B452:C452"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="A457:B457"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A459:B459"/>
+    <mergeCell ref="A460:B460"/>
+    <mergeCell ref="A442:B442"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="B432:C432"/>
+    <mergeCell ref="A434:B434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="A439:B439"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="A417:B417"/>
+    <mergeCell ref="A418:B418"/>
+    <mergeCell ref="A419:B419"/>
+    <mergeCell ref="A420:B420"/>
+    <mergeCell ref="A424:B424"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="B430:C430"/>
+    <mergeCell ref="B431:C431"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A403:B403"/>
+    <mergeCell ref="B408:C408"/>
+    <mergeCell ref="B409:C409"/>
+    <mergeCell ref="B410:C410"/>
+    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A414:B414"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="A392:B392"/>
+    <mergeCell ref="A393:B393"/>
+    <mergeCell ref="A394:B394"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A396:B396"/>
+    <mergeCell ref="A397:B397"/>
+    <mergeCell ref="A398:B398"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="A375:B375"/>
+    <mergeCell ref="A376:B376"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="B386:C386"/>
+    <mergeCell ref="B387:C387"/>
+    <mergeCell ref="B388:C388"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="B365:C365"/>
+    <mergeCell ref="B366:C366"/>
+    <mergeCell ref="B367:C367"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A370:B370"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="A372:B372"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A349:B349"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A354:B354"/>
+    <mergeCell ref="A355:B355"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
